--- a/client/Server.xlsx
+++ b/client/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="28695" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>新旧服标识</t>
+    <t>新旧服标志</t>
   </si>
   <si>
     <r>
@@ -63,14 +63,17 @@
     </r>
   </si>
   <si>
-    <t>name string</t>
-  </si>
-  <si>
-    <t>state int</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">host </t>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -85,7 +88,79 @@
     </r>
   </si>
   <si>
-    <t>flag int</t>
+    <r>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
     <t>甲子</t>
@@ -288,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -310,12 +385,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -352,7 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,67 +429,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,22 +443,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +481,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,10 +496,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -508,49 +583,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,127 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,15 +789,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -744,15 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,6 +821,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,183 +883,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,72 +1046,69 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1312,19 +1384,19 @@
   <sheetPr/>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" customWidth="1"/>
+    <col min="3" max="3" width="9.23333333333333" customWidth="1"/>
     <col min="4" max="4" width="89.125" customWidth="1"/>
-    <col min="5" max="5" width="12.7692307692308" customWidth="1"/>
+    <col min="5" max="5" width="12.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:5">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1337,1075 +1409,1075 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:5">
+    <row r="2" ht="17.25" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="16.5" spans="1:5">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="16.5" spans="1:5">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="16.5" spans="1:5">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="16.5" spans="1:5">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:5">
+    <row r="31" ht="14.25" spans="1:5">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:5">
+    <row r="32" ht="14.25" spans="1:5">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:5">
+    <row r="33" ht="14.25" spans="1:5">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="1:5">
+    <row r="34" ht="14.25" spans="1:5">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="1:5">
+    <row r="35" ht="14.25" spans="1:5">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:5">
+    <row r="36" ht="14.25" spans="1:5">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:5">
+    <row r="37" ht="14.25" spans="1:5">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:5">
+    <row r="38" ht="14.25" spans="1:5">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:5">
+    <row r="39" ht="14.25" spans="1:5">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="1:5">
+    <row r="40" ht="14.25" spans="1:5">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:5">
+    <row r="41" ht="14.25" spans="1:5">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:5">
+    <row r="42" ht="14.25" spans="1:5">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:5">
+    <row r="43" ht="14.25" spans="1:5">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:5">
+    <row r="44" ht="14.25" spans="1:5">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:5">
+    <row r="45" ht="14.25" spans="1:5">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:5">
+    <row r="46" ht="14.25" spans="1:5">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:5">
+    <row r="48" ht="14.25" spans="1:5">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:5">
+    <row r="49" ht="14.25" spans="1:5">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:5">
+    <row r="50" ht="14.25" spans="1:5">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:5">
+    <row r="51" ht="14.25" spans="1:5">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:5">
+    <row r="52" ht="14.25" spans="1:5">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="17.6" spans="1:5">
+    <row r="53" ht="14.25" spans="1:5">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="17.6" spans="1:5">
+    <row r="54" ht="14.25" spans="1:5">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="1:5">
+    <row r="55" ht="14.25" spans="1:5">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:5">
+    <row r="56" ht="14.25" spans="1:5">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="17.6" spans="1:5">
+    <row r="57" ht="14.25" spans="1:5">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="1:5">
+    <row r="58" ht="14.25" spans="1:5">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="1:5">
+    <row r="59" ht="14.25" spans="1:5">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="17.6" spans="1:5">
+    <row r="60" ht="14.25" spans="1:5">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="17.6" spans="1:5">
+    <row r="61" ht="14.25" spans="1:5">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="17.6" spans="1:5">
+    <row r="62" ht="14.25" spans="1:5">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" ht="16.5" spans="1:5">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" ht="16.5" spans="1:5">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64">

--- a/client/Server.xlsx
+++ b/client/Server.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>新旧服标志</t>
+    <t>新旧服标识</t>
   </si>
   <si>
     <r>
@@ -64,6 +64,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>name</t>
     </r>
     <r>
@@ -89,6 +96,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>state</t>
     </r>
     <r>
@@ -114,6 +128,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>host</t>
     </r>
     <r>
@@ -139,6 +160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>flag</t>
     </r>
     <r>
@@ -365,8 +393,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -421,6 +449,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -441,19 +515,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,66 +530,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -540,11 +554,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,25 +611,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,49 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,73 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,17 +823,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,50 +873,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -883,6 +887,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -891,10 +919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,16 +931,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,112 +952,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1413,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
